--- a/PM25_Coding/Data_cleaning/PM2.5/PM2.5_2019_.xlsx
+++ b/PM25_Coding/Data_cleaning/PM2.5/PM2.5_2019_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\DataMining_PM2_5\PM25_Coding\Data_cleaning\PM2.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A25745-ADCE-46E5-B4D9-FCDE2581566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE27213-FAD5-4DE8-9B13-72207AC3DDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17535" yWindow="3540" windowWidth="21600" windowHeight="11700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PM2.5" sheetId="1" r:id="rId1"/>
@@ -355,13 +355,7 @@
     <t>สถานีตำรวจภูธรตำบลหน้าพระลาน</t>
   </si>
   <si>
-    <t xml:space="preserve">ต.หน้าพระลาน อ.เฉลิมพระเกียรติ จ.สระบุรี </t>
-  </si>
-  <si>
     <t>สถานีดับเพลิงพระลักษณ์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ต.ปากเพรียว อ.เมือง จ.สระบุรี </t>
   </si>
   <si>
     <t>สำนักงานสิ่งแวดล้อมภาคที่ ๘ ราชบุรี</t>
@@ -481,9 +475,6 @@
     <t>สวนกาญจนาภิเษก ร.9 (ฝั่งสวนหิน)</t>
   </si>
   <si>
-    <t xml:space="preserve">ต.อรัญประเทศ อ.อรัญประเทศ จ.สระแก้ว </t>
-  </si>
-  <si>
     <t>ศาลาประชาคมบ้านบุยายใบ ปราจีนบุรี</t>
   </si>
   <si>
@@ -551,9 +542,6 @@
   </si>
   <si>
     <t xml:space="preserve">สถานีอุตุนิยมวิทยาแพร่ </t>
-  </si>
-  <si>
-    <t>ต.นาจักร อ.เมือง จ. แพร่</t>
   </si>
   <si>
     <t>สถานีอุตุนิยมวิทยาลำพูน</t>
@@ -629,6 +617,18 @@
   </si>
   <si>
     <t>70T</t>
+  </si>
+  <si>
+    <t>ต.ปากเพรียว อ.เมือง จ.สระบุรี</t>
+  </si>
+  <si>
+    <t>ต.หน้าพระลาน อ.เฉลิมพระเกียรติ จ.สระบุรี</t>
+  </si>
+  <si>
+    <t>ต.อรัญประเทศ อ.อรัญประเทศ จ.สระแก้ว</t>
+  </si>
+  <si>
+    <t>ต.นาจักร อ.เมือง จ.แพร่</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1252,7 @@
         <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>54</v>
@@ -73296,10 +73296,10 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -74478,10 +74478,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74489,10 +74489,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -74555,10 +74555,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -74577,7 +74577,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>107</v>
@@ -74588,10 +74588,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -74599,10 +74599,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -74610,10 +74610,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74621,10 +74621,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -74632,10 +74632,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -74643,10 +74643,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74654,10 +74654,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74665,10 +74665,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74676,10 +74676,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74687,10 +74687,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74698,10 +74698,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74709,10 +74709,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74720,10 +74720,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74731,10 +74731,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74742,10 +74742,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74753,10 +74753,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74764,10 +74764,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74775,10 +74775,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74786,10 +74786,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74797,10 +74797,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74808,10 +74808,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74819,10 +74819,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74830,10 +74830,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74841,10 +74841,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74852,10 +74852,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74863,10 +74863,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74874,10 +74874,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74885,10 +74885,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -74896,10 +74896,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -74907,21 +74907,21 @@
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74929,10 +74929,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74940,10 +74940,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74951,10 +74951,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74962,10 +74962,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74973,10 +74973,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74984,10 +74984,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74995,10 +74995,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -75006,10 +75006,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -75017,10 +75017,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -75028,10 +75028,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -75039,10 +75039,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
